--- a/WorkBot/refactor/data/orders/Sysco/CompletedOrders/Sysco_Bakery_2025-08-06.xlsx
+++ b/WorkBot/refactor/data/orders/Sysco/CompletedOrders/Sysco_Bakery_2025-08-06.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,519 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>5833462</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jalapenos (Sliced)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3157690</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rice Jasmine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2517447</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nutella</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0017354</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hash Brown</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2072536</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Frz Orange Juice</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>104.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>104.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1954734</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Smoothie - Ice Cream</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4617771</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Egg Patty</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>234.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2139032</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Peanut Butter - Chunky</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>7468531</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gatorade Cool Blue</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0683696</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tomato - Fresh Sliced</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>253.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7226918</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mozz (Sliced)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4438911</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Grain Blend 5 Way</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>233.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3413107</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Brie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2366607</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liquid Egg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>40.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>320.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1101324</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ricotta - Impastata</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>56.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4828802</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Heavy Cream</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>52.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>105.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1161181</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cream Cheese</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>986.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1681543</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Muffin Batter - Corn</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>214.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7233411</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Muffin Batter - Choc Chip</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>193.89</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
